--- a/mcmaster_excel/Hex-Drive_Rounded_Head_Screw_Assortments.xlsx
+++ b/mcmaster_excel/Hex-Drive_Rounded_Head_Screw_Assortments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,94 +434,74 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Numberof Pieces</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Screw Sizes Included</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ContainerType</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Each</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Inch</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>Numberof Pieces</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Screw Sizes Included</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ContainerType</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Each</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6-32 to 5/16"-18 in 3/8" to 1" Lengths</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ASTM F835</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Plastic Box</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91930A512</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$89.91</t>
-        </is>
-      </c>
+          <t>Inch</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Black-Oxide Alloy Steel</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -531,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4-40 to 1/4"-20 in 1/4" to 1" Lengths</t>
+          <t>6-32 to 5/16"-18 in 3/8" to 1" Lengths</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,32 +526,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92145A212</t>
+          <t>91930A512</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.40</t>
+          <t>$89.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
+          <t>Black-Oxide Alloy Steel</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4-40 to 1/4"-20 in 1/4" to 1" Lengths</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ASTM F835</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Plastic Box</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92145A212</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
@@ -582,50 +582,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M4 to M8 in 8 mm to 40 mm Lengths</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Plastic Box</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90115A032</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Black-Oxide Class 10.9 Alloy Steel</t>
+          <t>18-8 Stainless Steel</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M3 to M8 in 8 mm to 30 mm Lengths</t>
+          <t>M4 to M8 in 8 mm to 40 mm Lengths</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,16 +620,54 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92600A111</t>
+          <t>90115A032</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>75.67</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>Black-Oxide Class 10.9 Alloy Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>M3 to M8 in 8 mm to 30 mm Lengths</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Plastic Box</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92600A111</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>75.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
